--- a/trends/results/table4.xlsx
+++ b/trends/results/table4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>year range</t>
   </si>
@@ -46,40 +46,46 @@
     <t>2013-2017</t>
   </si>
   <si>
-    <t>(0.0009)</t>
-  </si>
-  <si>
-    <t>(0.0004)</t>
-  </si>
-  <si>
-    <t>(0.0006)</t>
-  </si>
-  <si>
-    <t>(0.001)</t>
-  </si>
-  <si>
-    <t>(0.002)</t>
-  </si>
-  <si>
-    <t>(0.0052)</t>
-  </si>
-  <si>
-    <t>(0.0018)</t>
-  </si>
-  <si>
-    <t>(0.0029)</t>
-  </si>
-  <si>
-    <t>(0.0035)</t>
-  </si>
-  <si>
-    <t>(0.0047)</t>
-  </si>
-  <si>
-    <t>(0.0037)</t>
-  </si>
-  <si>
-    <t>(0.0096)</t>
+    <t>(0.0288)</t>
+  </si>
+  <si>
+    <t>(0.0202)</t>
+  </si>
+  <si>
+    <t>(0.0238)</t>
+  </si>
+  <si>
+    <t>(0.0293)</t>
+  </si>
+  <si>
+    <t>(0.0329)</t>
+  </si>
+  <si>
+    <t>(0.0308)</t>
+  </si>
+  <si>
+    <t>(0.0452)</t>
+  </si>
+  <si>
+    <t>(0.0722)</t>
+  </si>
+  <si>
+    <t>(0.0439)</t>
+  </si>
+  <si>
+    <t>(0.0567)</t>
+  </si>
+  <si>
+    <t>(0.0596)</t>
+  </si>
+  <si>
+    <t>(0.0657)</t>
+  </si>
+  <si>
+    <t>(0.0599)</t>
+  </si>
+  <si>
+    <t>(0.1015)</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -501,7 +507,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -526,7 +532,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -548,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -573,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -598,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -623,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
